--- a/Propeller Packages/APC_13x6/ClvsAlpha_RPM6000.xlsx
+++ b/Propeller Packages/APC_13x6/ClvsAlpha_RPM6000.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="20">
   <si>
     <t>Alpha</t>
   </si>
@@ -118,7 +118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -150,7 +150,7 @@
     <col min="24" max="24" width="7.21875" customWidth="true"/>
     <col min="25" max="25" width="3.6640625" customWidth="true"/>
     <col min="26" max="26" width="7.21875" customWidth="true"/>
-    <col min="27" max="27" width="3.6640625" customWidth="true"/>
+    <col min="27" max="27" width="3" customWidth="true"/>
     <col min="28" max="28" width="7.21875" customWidth="true"/>
     <col min="29" max="29" width="3.6640625" customWidth="true"/>
     <col min="30" max="30" width="7.21875" customWidth="true"/>
@@ -162,6 +162,10 @@
     <col min="36" max="36" width="7.21875" customWidth="true"/>
     <col min="37" max="37" width="3.6640625" customWidth="true"/>
     <col min="38" max="38" width="7.21875" customWidth="true"/>
+    <col min="39" max="39" width="3" customWidth="true"/>
+    <col min="40" max="40" width="7.21875" customWidth="true"/>
+    <col min="41" max="41" width="3.6640625" customWidth="true"/>
+    <col min="42" max="42" width="7.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -175,108 +179,120 @@
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -285,115 +301,127 @@
         <v>-10</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1779</v>
+        <v>-0.23069999999999999</v>
       </c>
       <c r="C2" s="0">
         <v>-10</v>
       </c>
       <c r="D2" s="0">
-        <v>0.1384</v>
+        <v>0.0038</v>
       </c>
       <c r="E2" s="0">
         <v>-10</v>
       </c>
       <c r="F2" s="0">
-        <v>0.082299999999999998</v>
+        <v>0.1779</v>
       </c>
       <c r="G2" s="0">
         <v>-10</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.0123</v>
+        <v>0.16239999999999999</v>
       </c>
       <c r="I2" s="0">
         <v>-10</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.24729999999999999</v>
+        <v>0.1067</v>
       </c>
       <c r="K2" s="0">
         <v>-10</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.31240000000000001</v>
+        <v>0.081900000000000001</v>
       </c>
       <c r="M2" s="0">
         <v>-10</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.20979999999999999</v>
+        <v>-0.029600000000000001</v>
       </c>
       <c r="O2" s="0">
         <v>-10</v>
       </c>
       <c r="P2" s="0">
-        <v>-0.40539999999999998</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="Q2" s="0">
         <v>-10</v>
       </c>
       <c r="R2" s="0">
-        <v>-0.2656</v>
+        <v>-0.16550000000000001</v>
       </c>
       <c r="S2" s="0">
         <v>-10</v>
       </c>
       <c r="T2" s="0">
-        <v>-0.27860000000000001</v>
+        <v>-0.2319</v>
       </c>
       <c r="U2" s="0">
         <v>-10</v>
       </c>
       <c r="V2" s="0">
-        <v>-0.27479999999999999</v>
+        <v>-0.26740000000000003</v>
       </c>
       <c r="W2" s="0">
         <v>-10</v>
       </c>
       <c r="X2" s="0">
-        <v>-0.28849999999999998</v>
+        <v>-0.27400000000000002</v>
       </c>
       <c r="Y2" s="0">
         <v>-10</v>
       </c>
       <c r="Z2" s="0">
-        <v>-0.30740000000000001</v>
+        <v>-0.31130000000000002</v>
       </c>
       <c r="AA2" s="0">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AB2" s="0">
-        <v>-0.30990000000000001</v>
+        <v>-0.2934</v>
       </c>
       <c r="AC2" s="0">
         <v>-10</v>
       </c>
       <c r="AD2" s="0">
-        <v>-0.32869999999999999</v>
+        <v>-0.32540000000000002</v>
       </c>
       <c r="AE2" s="0">
         <v>-10</v>
       </c>
       <c r="AF2" s="0">
-        <v>-0.33760000000000001</v>
+        <v>-0.3175</v>
       </c>
       <c r="AG2" s="0">
         <v>-10</v>
       </c>
       <c r="AH2" s="0">
-        <v>-0.33229999999999999</v>
+        <v>-0.313</v>
       </c>
       <c r="AI2" s="0">
         <v>-10</v>
       </c>
       <c r="AJ2" s="0">
-        <v>-0.32919999999999999</v>
+        <v>-0.3186</v>
       </c>
       <c r="AK2" s="0">
         <v>-10</v>
       </c>
       <c r="AL2" s="0">
-        <v>-0.1991</v>
+        <v>-0.31390000000000001</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>-9</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>-0.32729999999999998</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>-10</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>-0.1537</v>
       </c>
     </row>
     <row r="3">
@@ -401,115 +429,127 @@
         <v>-9</v>
       </c>
       <c r="B3" s="0">
-        <v>0.031</v>
+        <v>-0.19220000000000001</v>
       </c>
       <c r="C3" s="0">
         <v>-9</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.104</v>
+        <v>-0.0057000000000000002</v>
       </c>
       <c r="E3" s="0">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.17549999999999999</v>
+        <v>0.0172</v>
       </c>
       <c r="G3" s="0">
         <v>-9</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.21160000000000001</v>
+        <v>0.12889999999999999</v>
       </c>
       <c r="I3" s="0">
         <v>-9</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.2893</v>
+        <v>0.072599999999999998</v>
       </c>
       <c r="K3" s="0">
         <v>-9</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.34189999999999998</v>
+        <v>0.015299999999999999</v>
       </c>
       <c r="M3" s="0">
         <v>-9</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.37530000000000002</v>
+        <v>-0.21820000000000001</v>
       </c>
       <c r="O3" s="0">
         <v>-9</v>
       </c>
       <c r="P3" s="0">
-        <v>-0.4027</v>
+        <v>-0.2394</v>
       </c>
       <c r="Q3" s="0">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="R3" s="0">
-        <v>-0.4108</v>
+        <v>-0.307</v>
       </c>
       <c r="S3" s="0">
         <v>-9</v>
       </c>
       <c r="T3" s="0">
-        <v>-0.42470000000000002</v>
+        <v>-0.23319999999999999</v>
       </c>
       <c r="U3" s="0">
         <v>-9</v>
       </c>
       <c r="V3" s="0">
-        <v>-0.41110000000000002</v>
+        <v>-0.25950000000000001</v>
       </c>
       <c r="W3" s="0">
         <v>-9</v>
       </c>
       <c r="X3" s="0">
-        <v>-0.32319999999999999</v>
+        <v>-0.25669999999999998</v>
       </c>
       <c r="Y3" s="0">
         <v>-9</v>
       </c>
       <c r="Z3" s="0">
-        <v>-0.3085</v>
+        <v>-0.2762</v>
       </c>
       <c r="AA3" s="0">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="AB3" s="0">
-        <v>-0.31259999999999999</v>
+        <v>-0.30380000000000001</v>
       </c>
       <c r="AC3" s="0">
         <v>-9</v>
       </c>
       <c r="AD3" s="0">
-        <v>-0.30790000000000001</v>
+        <v>-0.30109999999999998</v>
       </c>
       <c r="AE3" s="0">
         <v>-9</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.3241</v>
+        <v>-0.31969999999999999</v>
       </c>
       <c r="AG3" s="0">
         <v>-9</v>
       </c>
       <c r="AH3" s="0">
-        <v>-0.34160000000000001</v>
+        <v>-0.36120000000000002</v>
       </c>
       <c r="AI3" s="0">
         <v>-9</v>
       </c>
       <c r="AJ3" s="0">
-        <v>-0.3473</v>
+        <v>-0.35770000000000002</v>
       </c>
       <c r="AK3" s="0">
         <v>-9</v>
       </c>
       <c r="AL3" s="0">
-        <v>-0.19309999999999999</v>
+        <v>-0.3322</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>-8</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>-0.38540000000000002</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>-9</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>-0.1293</v>
       </c>
     </row>
     <row r="4">
@@ -517,115 +557,127 @@
         <v>-8</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.1993</v>
+        <v>-0.2397</v>
       </c>
       <c r="C4" s="0">
         <v>-8</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.18809999999999999</v>
+        <v>-0.038100000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.1822</v>
+        <v>-0.27310000000000001</v>
       </c>
       <c r="G4" s="0">
         <v>-8</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.2079</v>
+        <v>-0.2102</v>
       </c>
       <c r="I4" s="0">
         <v>-8</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.24279999999999999</v>
+        <v>-0.20780000000000001</v>
       </c>
       <c r="K4" s="0">
         <v>-8</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.28160000000000002</v>
+        <v>-0.19620000000000001</v>
       </c>
       <c r="M4" s="0">
         <v>-8</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.31769999999999998</v>
+        <v>-0.23849999999999999</v>
       </c>
       <c r="O4" s="0">
         <v>-8</v>
       </c>
       <c r="P4" s="0">
-        <v>-0.34239999999999998</v>
+        <v>-0.27250000000000002</v>
       </c>
       <c r="Q4" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.35899999999999999</v>
+        <v>-0.22800000000000001</v>
       </c>
       <c r="S4" s="0">
         <v>-8</v>
       </c>
       <c r="T4" s="0">
-        <v>-0.36659999999999998</v>
+        <v>-0.32829999999999998</v>
       </c>
       <c r="U4" s="0">
         <v>-8</v>
       </c>
       <c r="V4" s="0">
-        <v>-0.377</v>
+        <v>-0.34279999999999999</v>
       </c>
       <c r="W4" s="0">
         <v>-8</v>
       </c>
       <c r="X4" s="0">
-        <v>-0.3811</v>
+        <v>-0.34560000000000002</v>
       </c>
       <c r="Y4" s="0">
         <v>-8</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.38150000000000001</v>
+        <v>-0.37040000000000001</v>
       </c>
       <c r="AA4" s="0">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="AB4" s="0">
-        <v>-0.38490000000000002</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="AC4" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AD4" s="0">
-        <v>-0.36330000000000001</v>
+        <v>-0.3085</v>
       </c>
       <c r="AE4" s="0">
         <v>-8</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.3271</v>
+        <v>-0.32090000000000002</v>
       </c>
       <c r="AG4" s="0">
         <v>-8</v>
       </c>
       <c r="AH4" s="0">
-        <v>-0.32740000000000002</v>
+        <v>-0.36380000000000001</v>
       </c>
       <c r="AI4" s="0">
         <v>-8</v>
       </c>
       <c r="AJ4" s="0">
-        <v>-0.34739999999999999</v>
+        <v>-0.35399999999999998</v>
       </c>
       <c r="AK4" s="0">
         <v>-8</v>
       </c>
       <c r="AL4" s="0">
-        <v>-0.18959999999999999</v>
+        <v>-0.3967</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>-7</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>-0.41810000000000003</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>-8</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="5">
@@ -633,97 +685,97 @@
         <v>-7</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.23319999999999999</v>
+        <v>-0.26960000000000001</v>
       </c>
       <c r="C5" s="0">
         <v>-7</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.19070000000000001</v>
+        <v>-0.098199999999999996</v>
       </c>
       <c r="E5" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.14829999999999999</v>
+        <v>-0.40010000000000001</v>
       </c>
       <c r="G5" s="0">
         <v>-7</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.157</v>
+        <v>-0.23780000000000001</v>
       </c>
       <c r="I5" s="0">
         <v>-7</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.17230000000000001</v>
+        <v>-0.19700000000000001</v>
       </c>
       <c r="K5" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.20150000000000001</v>
+        <v>-0.1454</v>
       </c>
       <c r="M5" s="0">
         <v>-7</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.23050000000000001</v>
+        <v>-0.1721</v>
       </c>
       <c r="O5" s="0">
         <v>-7</v>
       </c>
       <c r="P5" s="0">
-        <v>-0.25580000000000003</v>
+        <v>-0.1986</v>
       </c>
       <c r="Q5" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.27200000000000002</v>
+        <v>-0.13880000000000001</v>
       </c>
       <c r="S5" s="0">
         <v>-7</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.28189999999999998</v>
+        <v>-0.25590000000000002</v>
       </c>
       <c r="U5" s="0">
         <v>-7</v>
       </c>
       <c r="V5" s="0">
-        <v>-0.28989999999999999</v>
+        <v>-0.27300000000000002</v>
       </c>
       <c r="W5" s="0">
         <v>-7</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.3009</v>
+        <v>-0.28189999999999998</v>
       </c>
       <c r="Y5" s="0">
         <v>-7</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.31269999999999998</v>
+        <v>-0.2843</v>
       </c>
       <c r="AA5" s="0">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="AB5" s="0">
-        <v>-0.32219999999999999</v>
+        <v>-0.097100000000000006</v>
       </c>
       <c r="AC5" s="0">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="AD5" s="0">
-        <v>-0.33079999999999998</v>
+        <v>-0.1101</v>
       </c>
       <c r="AE5" s="0">
         <v>-7</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.33979999999999999</v>
+        <v>-0.31890000000000002</v>
       </c>
       <c r="AG5" s="0">
         <v>-7</v>
@@ -735,13 +787,25 @@
         <v>-7</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.34010000000000001</v>
+        <v>-0.35089999999999999</v>
       </c>
       <c r="AK5" s="0">
         <v>-7</v>
       </c>
       <c r="AL5" s="0">
-        <v>-0.1883</v>
+        <v>-0.377</v>
+      </c>
+      <c r="AM5" s="0">
+        <v>-6</v>
+      </c>
+      <c r="AN5" s="0">
+        <v>-0.37319999999999998</v>
+      </c>
+      <c r="AO5" s="0">
+        <v>-7</v>
+      </c>
+      <c r="AP5" s="0">
+        <v>-0.097199999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -749,115 +813,127 @@
         <v>-6</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.20810000000000001</v>
+        <v>-0.30759999999999999</v>
       </c>
       <c r="C6" s="0">
         <v>-6</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.15229999999999999</v>
+        <v>-0.21049999999999999</v>
       </c>
       <c r="E6" s="0">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.093899999999999997</v>
+        <v>-0.39960000000000001</v>
       </c>
       <c r="G6" s="0">
         <v>-6</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.090399999999999994</v>
+        <v>-0.21540000000000001</v>
       </c>
       <c r="I6" s="0">
         <v>-6</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.089300000000000004</v>
+        <v>-0.15129999999999999</v>
       </c>
       <c r="K6" s="0">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.1086</v>
+        <v>0.0047000000000000002</v>
       </c>
       <c r="M6" s="0">
         <v>-6</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.13700000000000001</v>
+        <v>-0.1027</v>
       </c>
       <c r="O6" s="0">
         <v>-6</v>
       </c>
       <c r="P6" s="0">
-        <v>-0.15920000000000001</v>
+        <v>-0.11509999999999999</v>
       </c>
       <c r="Q6" s="0">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.1741</v>
+        <v>-0.037400000000000003</v>
       </c>
       <c r="S6" s="0">
         <v>-6</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.18160000000000001</v>
+        <v>-0.1598</v>
       </c>
       <c r="U6" s="0">
         <v>-6</v>
       </c>
       <c r="V6" s="0">
-        <v>-0.19220000000000001</v>
+        <v>-0.17080000000000001</v>
       </c>
       <c r="W6" s="0">
         <v>-6</v>
       </c>
       <c r="X6" s="0">
-        <v>-0.2031</v>
+        <v>-0.18110000000000001</v>
       </c>
       <c r="Y6" s="0">
         <v>-6</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.2137</v>
+        <v>-0.19370000000000001</v>
       </c>
       <c r="AA6" s="0">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AB6" s="0">
-        <v>-0.22839999999999999</v>
+        <v>0.0132</v>
       </c>
       <c r="AC6" s="0">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AD6" s="0">
-        <v>-0.24210000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="AE6" s="0">
         <v>-6</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.25779999999999997</v>
+        <v>-0.23569999999999999</v>
       </c>
       <c r="AG6" s="0">
         <v>-6</v>
       </c>
       <c r="AH6" s="0">
-        <v>-0.27710000000000001</v>
+        <v>-0.25530000000000003</v>
       </c>
       <c r="AI6" s="0">
         <v>-6</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.29870000000000002</v>
+        <v>-0.28039999999999998</v>
       </c>
       <c r="AK6" s="0">
         <v>-6</v>
       </c>
       <c r="AL6" s="0">
-        <v>-0.18759999999999999</v>
+        <v>-0.31159999999999999</v>
+      </c>
+      <c r="AM6" s="0">
+        <v>-5</v>
+      </c>
+      <c r="AN6" s="0">
+        <v>-0.2772</v>
+      </c>
+      <c r="AO6" s="0">
+        <v>-6</v>
+      </c>
+      <c r="AP6" s="0">
+        <v>-0.092600000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -865,115 +941,127 @@
         <v>-5</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.15720000000000001</v>
+        <v>-0.37109999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.095500000000000002</v>
+        <v>-0.41099999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.033099999999999998</v>
+        <v>-0.34949999999999998</v>
       </c>
       <c r="G7" s="0">
         <v>-5</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.0152</v>
+        <v>-0.16070000000000001</v>
       </c>
       <c r="I7" s="0">
         <v>-5</v>
       </c>
       <c r="J7" s="0">
-        <v>0.00080000000000000004</v>
+        <v>-0.1288</v>
       </c>
       <c r="K7" s="0">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.0144</v>
+        <v>0.086099999999999996</v>
       </c>
       <c r="M7" s="0">
         <v>-5</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.038199999999999998</v>
+        <v>-0.016299999999999999</v>
       </c>
       <c r="O7" s="0">
         <v>-5</v>
       </c>
       <c r="P7" s="0">
-        <v>-0.0567</v>
+        <v>-0.019900000000000001</v>
       </c>
       <c r="Q7" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.0712</v>
+        <v>0.068500000000000005</v>
       </c>
       <c r="S7" s="0">
         <v>-5</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.079799999999999996</v>
+        <v>-0.0516</v>
       </c>
       <c r="U7" s="0">
         <v>-5</v>
       </c>
       <c r="V7" s="0">
-        <v>-0.088400000000000006</v>
+        <v>-0.0693</v>
       </c>
       <c r="W7" s="0">
         <v>-5</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.097100000000000006</v>
+        <v>-0.076799999999999993</v>
       </c>
       <c r="Y7" s="0">
         <v>-5</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.1103</v>
+        <v>-0.082199999999999995</v>
       </c>
       <c r="AA7" s="0">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.1222</v>
+        <v>0.1216</v>
       </c>
       <c r="AC7" s="0">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="AD7" s="0">
-        <v>-0.1381</v>
+        <v>0.1094</v>
       </c>
       <c r="AE7" s="0">
         <v>-5</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.155</v>
+        <v>-0.12609999999999999</v>
       </c>
       <c r="AG7" s="0">
         <v>-5</v>
       </c>
       <c r="AH7" s="0">
-        <v>-0.1749</v>
+        <v>-0.1464</v>
       </c>
       <c r="AI7" s="0">
         <v>-5</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.20660000000000001</v>
+        <v>-0.17610000000000001</v>
       </c>
       <c r="AK7" s="0">
         <v>-5</v>
       </c>
       <c r="AL7" s="0">
-        <v>-0.18360000000000001</v>
+        <v>-0.2112</v>
+      </c>
+      <c r="AM7" s="0">
+        <v>-4</v>
+      </c>
+      <c r="AN7" s="0">
+        <v>-0.15310000000000001</v>
+      </c>
+      <c r="AO7" s="0">
+        <v>-5</v>
+      </c>
+      <c r="AP7" s="0">
+        <v>-0.098400000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -981,115 +1069,127 @@
         <v>-4</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.095699999999999993</v>
+        <v>-0.4173</v>
       </c>
       <c r="C8" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.029000000000000001</v>
+        <v>-0.40720000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F8" s="0">
-        <v>0.035299999999999998</v>
+        <v>-0.314</v>
       </c>
       <c r="G8" s="0">
         <v>-4</v>
       </c>
       <c r="H8" s="0">
-        <v>0.062399999999999997</v>
+        <v>-0.094399999999999998</v>
       </c>
       <c r="I8" s="0">
         <v>-4</v>
       </c>
       <c r="J8" s="0">
-        <v>0.094799999999999995</v>
+        <v>-0.054899999999999998</v>
       </c>
       <c r="K8" s="0">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="0">
-        <v>0.0838</v>
+        <v>0.29709999999999998</v>
       </c>
       <c r="M8" s="0">
         <v>-4</v>
       </c>
       <c r="N8" s="0">
-        <v>0.065600000000000006</v>
+        <v>0.075300000000000006</v>
       </c>
       <c r="O8" s="0">
         <v>-4</v>
       </c>
       <c r="P8" s="0">
-        <v>0.0465</v>
+        <v>0.080399999999999999</v>
       </c>
       <c r="Q8" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="R8" s="0">
-        <v>0.034299999999999997</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="S8" s="0">
         <v>-4</v>
       </c>
       <c r="T8" s="0">
-        <v>0.027300000000000001</v>
+        <v>0.049500000000000002</v>
       </c>
       <c r="U8" s="0">
         <v>-4</v>
       </c>
       <c r="V8" s="0">
-        <v>0.019</v>
+        <v>0.041000000000000002</v>
       </c>
       <c r="W8" s="0">
         <v>-4</v>
       </c>
       <c r="X8" s="0">
-        <v>0.0086999999999999994</v>
+        <v>0.031300000000000001</v>
       </c>
       <c r="Y8" s="0">
         <v>-4</v>
       </c>
       <c r="Z8" s="0">
-        <v>-0.002</v>
+        <v>0.021700000000000001</v>
       </c>
       <c r="AA8" s="0">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.0143</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="AC8" s="0">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AD8" s="0">
-        <v>-0.029100000000000001</v>
+        <v>0.2203</v>
       </c>
       <c r="AE8" s="0">
         <v>-4</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.046600000000000003</v>
+        <v>-0.014800000000000001</v>
       </c>
       <c r="AG8" s="0">
         <v>-4</v>
       </c>
       <c r="AH8" s="0">
-        <v>-0.066600000000000007</v>
+        <v>-0.031699999999999999</v>
       </c>
       <c r="AI8" s="0">
         <v>-4</v>
       </c>
       <c r="AJ8" s="0">
-        <v>-0.098599999999999993</v>
+        <v>-0.051499999999999997</v>
       </c>
       <c r="AK8" s="0">
         <v>-4</v>
       </c>
       <c r="AL8" s="0">
-        <v>-0.1716</v>
+        <v>-0.090800000000000006</v>
+      </c>
+      <c r="AM8" s="0">
+        <v>-3</v>
+      </c>
+      <c r="AN8" s="0">
+        <v>-0.0286</v>
+      </c>
+      <c r="AO8" s="0">
+        <v>-4</v>
+      </c>
+      <c r="AP8" s="0">
+        <v>-0.1164</v>
       </c>
     </row>
     <row r="9">
@@ -1097,115 +1197,127 @@
         <v>-3</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0286</v>
+        <v>-0.46060000000000001</v>
       </c>
       <c r="C9" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.042000000000000003</v>
+        <v>-0.36980000000000002</v>
       </c>
       <c r="E9" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F9" s="0">
-        <v>0.1103</v>
+        <v>-0.29049999999999998</v>
       </c>
       <c r="G9" s="0">
         <v>-3</v>
       </c>
       <c r="H9" s="0">
-        <v>0.14230000000000001</v>
+        <v>-0.021999999999999999</v>
       </c>
       <c r="I9" s="0">
         <v>-3</v>
       </c>
       <c r="J9" s="0">
-        <v>0.1905</v>
+        <v>0.064799999999999997</v>
       </c>
       <c r="K9" s="0">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>0.18459999999999999</v>
+        <v>0.39850000000000002</v>
       </c>
       <c r="M9" s="0">
         <v>-3</v>
       </c>
       <c r="N9" s="0">
-        <v>0.1706</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="O9" s="0">
         <v>-3</v>
       </c>
       <c r="P9" s="0">
-        <v>0.15390000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="Q9" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R9" s="0">
-        <v>0.14149999999999999</v>
+        <v>0.27710000000000001</v>
       </c>
       <c r="S9" s="0">
         <v>-3</v>
       </c>
       <c r="T9" s="0">
-        <v>0.1346</v>
+        <v>0.156</v>
       </c>
       <c r="U9" s="0">
         <v>-3</v>
       </c>
       <c r="V9" s="0">
-        <v>0.1268</v>
+        <v>0.14410000000000001</v>
       </c>
       <c r="W9" s="0">
         <v>-3</v>
       </c>
       <c r="X9" s="0">
-        <v>0.11840000000000001</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="Y9" s="0">
         <v>-3</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.108</v>
+        <v>0.1333</v>
       </c>
       <c r="AA9" s="0">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.095600000000000004</v>
+        <v>0.3377</v>
       </c>
       <c r="AC9" s="0">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.083000000000000004</v>
+        <v>0.3266</v>
       </c>
       <c r="AE9" s="0">
         <v>-3</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.064699999999999994</v>
+        <v>0.098699999999999996</v>
       </c>
       <c r="AG9" s="0">
         <v>-3</v>
       </c>
       <c r="AH9" s="0">
-        <v>0.044400000000000002</v>
+        <v>0.079899999999999999</v>
       </c>
       <c r="AI9" s="0">
         <v>-3</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0.0138</v>
+        <v>0.059299999999999999</v>
       </c>
       <c r="AK9" s="0">
         <v>-3</v>
       </c>
       <c r="AL9" s="0">
-        <v>-0.1487</v>
+        <v>0.032800000000000003</v>
+      </c>
+      <c r="AM9" s="0">
+        <v>-2</v>
+      </c>
+      <c r="AN9" s="0">
+        <v>0.098000000000000004</v>
+      </c>
+      <c r="AO9" s="0">
+        <v>-3</v>
+      </c>
+      <c r="AP9" s="0">
+        <v>-0.1414</v>
       </c>
     </row>
     <row r="10">
@@ -1213,115 +1325,127 @@
         <v>-2</v>
       </c>
       <c r="B10" s="0">
-        <v>0.042000000000000003</v>
+        <v>-0.46739999999999998</v>
       </c>
       <c r="C10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="0">
-        <v>0.1174</v>
+        <v>-0.31690000000000002</v>
       </c>
       <c r="E10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="0">
-        <v>0.19309999999999999</v>
+        <v>-0.2246</v>
       </c>
       <c r="G10" s="0">
         <v>-2</v>
       </c>
       <c r="H10" s="0">
-        <v>0.22409999999999999</v>
+        <v>0.071300000000000002</v>
       </c>
       <c r="I10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="0">
-        <v>0.28399999999999997</v>
+        <v>0.2167</v>
       </c>
       <c r="K10" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="0">
-        <v>0.28670000000000001</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="M10" s="0">
         <v>-2</v>
       </c>
       <c r="N10" s="0">
-        <v>0.27239999999999998</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="O10" s="0">
         <v>-2</v>
       </c>
       <c r="P10" s="0">
-        <v>0.2576</v>
+        <v>0.29110000000000003</v>
       </c>
       <c r="Q10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R10" s="0">
-        <v>0.24709999999999999</v>
+        <v>0.38069999999999998</v>
       </c>
       <c r="S10" s="0">
         <v>-2</v>
       </c>
       <c r="T10" s="0">
-        <v>0.24110000000000001</v>
+        <v>0.2616</v>
       </c>
       <c r="U10" s="0">
         <v>-2</v>
       </c>
       <c r="V10" s="0">
-        <v>0.23419999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="W10" s="0">
         <v>-2</v>
       </c>
       <c r="X10" s="0">
-        <v>0.2266</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="Y10" s="0">
         <v>-2</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.2172</v>
+        <v>0.2402</v>
       </c>
       <c r="AA10" s="0">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.20599999999999999</v>
+        <v>0.60799999999999999</v>
       </c>
       <c r="AC10" s="0">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.1933</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="AE10" s="0">
         <v>-2</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.17749999999999999</v>
+        <v>0.2079</v>
       </c>
       <c r="AG10" s="0">
         <v>-2</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.1575</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AI10" s="0">
         <v>-2</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.12989999999999999</v>
+        <v>0.17219999999999999</v>
       </c>
       <c r="AK10" s="0">
         <v>-2</v>
       </c>
       <c r="AL10" s="0">
-        <v>-0.1148</v>
+        <v>0.1474</v>
+      </c>
+      <c r="AM10" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN10" s="0">
+        <v>0.213</v>
+      </c>
+      <c r="AO10" s="0">
+        <v>-2</v>
+      </c>
+      <c r="AP10" s="0">
+        <v>-0.1363</v>
       </c>
     </row>
     <row r="11">
@@ -1329,115 +1453,127 @@
         <v>-1</v>
       </c>
       <c r="B11" s="0">
-        <v>0.12670000000000001</v>
+        <v>-0.43569999999999998</v>
       </c>
       <c r="C11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.2102</v>
+        <v>-0.24540000000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0.25650000000000001</v>
+        <v>-0.1437</v>
       </c>
       <c r="G11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>0.32029999999999997</v>
+        <v>0.2208</v>
       </c>
       <c r="I11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.37490000000000001</v>
+        <v>0.31130000000000002</v>
       </c>
       <c r="K11" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="0">
-        <v>0.38329999999999998</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M11" s="0">
         <v>-1</v>
       </c>
       <c r="N11" s="0">
-        <v>0.37359999999999999</v>
+        <v>0.3957</v>
       </c>
       <c r="O11" s="0">
         <v>-1</v>
       </c>
       <c r="P11" s="0">
-        <v>0.36049999999999999</v>
+        <v>0.39589999999999998</v>
       </c>
       <c r="Q11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="0">
-        <v>0.35089999999999999</v>
+        <v>0.4803</v>
       </c>
       <c r="S11" s="0">
         <v>-1</v>
       </c>
       <c r="T11" s="0">
-        <v>0.34549999999999997</v>
+        <v>0.3669</v>
       </c>
       <c r="U11" s="0">
         <v>-1</v>
       </c>
       <c r="V11" s="0">
-        <v>0.33929999999999999</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="W11" s="0">
         <v>-1</v>
       </c>
       <c r="X11" s="0">
-        <v>0.33189999999999997</v>
+        <v>0.35120000000000001</v>
       </c>
       <c r="Y11" s="0">
         <v>-1</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.32279999999999998</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="AA11" s="0">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.31319999999999998</v>
+        <v>0.69979999999999998</v>
       </c>
       <c r="AC11" s="0">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.30120000000000002</v>
+        <v>0.59850000000000003</v>
       </c>
       <c r="AE11" s="0">
         <v>-1</v>
       </c>
       <c r="AF11" s="0">
-        <v>0.28770000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="AG11" s="0">
         <v>-1</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.27110000000000001</v>
+        <v>0.3024</v>
       </c>
       <c r="AI11" s="0">
         <v>-1</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.2419</v>
+        <v>0.28670000000000001</v>
       </c>
       <c r="AK11" s="0">
         <v>-1</v>
       </c>
       <c r="AL11" s="0">
-        <v>-0.072700000000000001</v>
+        <v>0.26290000000000002</v>
+      </c>
+      <c r="AM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="0">
+        <v>0.3785</v>
+      </c>
+      <c r="AO11" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AP11" s="0">
+        <v>-0.090999999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -1445,115 +1581,127 @@
         <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0.2112</v>
+        <v>-0.38069999999999998</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>0.26579999999999998</v>
+        <v>-0.17169999999999999</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0">
-        <v>0.34570000000000001</v>
+        <v>0.015299999999999999</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="0">
-        <v>0.39079999999999998</v>
+        <v>0.31459999999999999</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="0">
-        <v>0.45550000000000002</v>
+        <v>0.4093</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="0">
-        <v>0.47910000000000003</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="M12" s="0">
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.47360000000000002</v>
+        <v>0.47439999999999999</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>0.46229999999999999</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="Q12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="0">
-        <v>0.45379999999999998</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>0.44900000000000001</v>
+        <v>0.46489999999999998</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>0.44319999999999998</v>
+        <v>0.4546</v>
       </c>
       <c r="W12" s="0">
+        <v>0</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="0">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="AG12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="0">
+        <v>0.45889999999999998</v>
+      </c>
+      <c r="AI12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="0">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="AK12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="0">
+        <v>0.431</v>
+      </c>
+      <c r="AM12" s="0">
         <v>1</v>
       </c>
-      <c r="X12" s="0">
-        <v>0.5484</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>0.4279</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="0">
-        <v>0.40489999999999998</v>
-      </c>
-      <c r="AE12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>0.3881</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="0">
-        <v>0.37369999999999998</v>
-      </c>
-      <c r="AI12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="0">
-        <v>0.37559999999999999</v>
-      </c>
-      <c r="AK12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="0">
-        <v>-0.0259</v>
+      <c r="AN12" s="0">
+        <v>0.48409999999999998</v>
+      </c>
+      <c r="AO12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="0">
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="13">
@@ -1561,115 +1709,127 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>0.25840000000000002</v>
+        <v>-0.31790000000000002</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="0">
-        <v>0.3453</v>
+        <v>-0.0712</v>
       </c>
       <c r="E13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="0">
-        <v>0.41070000000000001</v>
+        <v>0.1134</v>
       </c>
       <c r="G13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0">
-        <v>0.47860000000000003</v>
+        <v>0.45569999999999999</v>
       </c>
       <c r="I13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="0">
-        <v>0.54359999999999997</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L13" s="0">
-        <v>0.56869999999999998</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="M13" s="0">
         <v>1</v>
       </c>
       <c r="N13" s="0">
-        <v>0.56459999999999999</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="O13" s="0">
         <v>1</v>
       </c>
       <c r="P13" s="0">
-        <v>0.5565</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="0">
-        <v>0.55220000000000002</v>
+        <v>0.73509999999999998</v>
       </c>
       <c r="S13" s="0">
         <v>1</v>
       </c>
       <c r="T13" s="0">
-        <v>0.55020000000000002</v>
+        <v>0.64090000000000003</v>
       </c>
       <c r="U13" s="0">
         <v>1</v>
       </c>
       <c r="V13" s="0">
-        <v>0.54869999999999997</v>
+        <v>0.62980000000000003</v>
       </c>
       <c r="W13" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" s="0">
-        <v>0.67959999999999998</v>
+        <v>0.62360000000000004</v>
       </c>
       <c r="Y13" s="0">
         <v>1</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.54869999999999997</v>
+        <v>0.61650000000000005</v>
       </c>
       <c r="AA13" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.54820000000000002</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="AC13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.54830000000000001</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="AE13" s="0">
         <v>1</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.54169999999999996</v>
+        <v>0.58689999999999998</v>
       </c>
       <c r="AG13" s="0">
         <v>1</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.52159999999999995</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="AI13" s="0">
         <v>1</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0.48470000000000002</v>
+        <v>0.5554</v>
       </c>
       <c r="AK13" s="0">
         <v>1</v>
       </c>
       <c r="AL13" s="0">
-        <v>0.023</v>
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="AM13" s="0">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="0">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="AO13" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="0">
+        <v>0.031300000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1677,115 +1837,127 @@
         <v>2</v>
       </c>
       <c r="B14" s="0">
-        <v>0.33510000000000001</v>
+        <v>-0.2462</v>
       </c>
       <c r="C14" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0">
-        <v>0.4042</v>
+        <v>-0.016899999999999998</v>
       </c>
       <c r="E14" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0">
-        <v>0.48809999999999998</v>
+        <v>0.3019</v>
       </c>
       <c r="G14" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="0">
-        <v>0.62629999999999997</v>
+        <v>0.54690000000000005</v>
       </c>
       <c r="I14" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J14" s="0">
-        <v>0.62749999999999995</v>
+        <v>0.81379999999999997</v>
       </c>
       <c r="K14" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L14" s="0">
-        <v>0.69189999999999996</v>
+        <v>0.9284</v>
       </c>
       <c r="M14" s="0">
         <v>2</v>
       </c>
       <c r="N14" s="0">
-        <v>0.70509999999999995</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="O14" s="0">
         <v>2</v>
       </c>
       <c r="P14" s="0">
-        <v>0.70050000000000001</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="Q14" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R14" s="0">
-        <v>0.69430000000000003</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="S14" s="0">
         <v>2</v>
       </c>
       <c r="T14" s="0">
-        <v>0.69069999999999998</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="U14" s="0">
         <v>2</v>
       </c>
       <c r="V14" s="0">
-        <v>0.68600000000000005</v>
+        <v>0.71719999999999995</v>
       </c>
       <c r="W14" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14" s="0">
-        <v>0.76749999999999996</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="Y14" s="0">
         <v>2</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.67179999999999995</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="AA14" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.66300000000000003</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="AC14" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.65180000000000005</v>
+        <v>0.87409999999999999</v>
       </c>
       <c r="AE14" s="0">
         <v>2</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.63759999999999995</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="AG14" s="0">
         <v>2</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.619</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="AI14" s="0">
         <v>2</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0.58340000000000003</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="AK14" s="0">
         <v>2</v>
       </c>
       <c r="AL14" s="0">
-        <v>0.072400000000000006</v>
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="AM14" s="0">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="0">
+        <v>0.6976</v>
+      </c>
+      <c r="AO14" s="0">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="0">
+        <v>0.093899999999999997</v>
       </c>
     </row>
     <row r="15">
@@ -1793,115 +1965,127 @@
         <v>3</v>
       </c>
       <c r="B15" s="0">
-        <v>0.3841</v>
+        <v>-0.16669999999999999</v>
       </c>
       <c r="C15" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0">
-        <v>0.47660000000000002</v>
+        <v>0.16170000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="0">
-        <v>0.54530000000000001</v>
+        <v>0.3559</v>
       </c>
       <c r="G15" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0">
-        <v>0.68989999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I15" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J15" s="0">
-        <v>0.71360000000000001</v>
+        <v>0.85450000000000004</v>
       </c>
       <c r="K15" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0">
-        <v>0.76259999999999995</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="M15" s="0">
         <v>3</v>
       </c>
       <c r="N15" s="0">
-        <v>0.78110000000000002</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="O15" s="0">
         <v>3</v>
       </c>
       <c r="P15" s="0">
-        <v>0.78090000000000004</v>
+        <v>0.81379999999999997</v>
       </c>
       <c r="Q15" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" s="0">
-        <v>0.77800000000000002</v>
+        <v>0.8952</v>
       </c>
       <c r="S15" s="0">
         <v>3</v>
       </c>
       <c r="T15" s="0">
-        <v>0.77529999999999999</v>
+        <v>0.80989999999999995</v>
       </c>
       <c r="U15" s="0">
         <v>3</v>
       </c>
       <c r="V15" s="0">
-        <v>0.77180000000000004</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="W15" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X15" s="0">
-        <v>0.85260000000000002</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="Y15" s="0">
         <v>3</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.76149999999999996</v>
+        <v>0.79620000000000002</v>
       </c>
       <c r="AA15" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.75390000000000001</v>
+        <v>1.0510999999999999</v>
       </c>
       <c r="AC15" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.74490000000000001</v>
+        <v>0.9617</v>
       </c>
       <c r="AE15" s="0">
         <v>3</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.73240000000000005</v>
+        <v>0.77580000000000005</v>
       </c>
       <c r="AG15" s="0">
         <v>3</v>
       </c>
       <c r="AH15" s="0">
-        <v>0.71599999999999997</v>
+        <v>0.76539999999999997</v>
       </c>
       <c r="AI15" s="0">
         <v>3</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.68210000000000004</v>
+        <v>0.75260000000000005</v>
       </c>
       <c r="AK15" s="0">
         <v>3</v>
       </c>
       <c r="AL15" s="0">
-        <v>0.121</v>
+        <v>0.7349</v>
+      </c>
+      <c r="AM15" s="0">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="0">
+        <v>0.79879999999999996</v>
+      </c>
+      <c r="AO15" s="0">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="0">
+        <v>0.15459999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1909,115 +2093,127 @@
         <v>4</v>
       </c>
       <c r="B16" s="0">
-        <v>0.44740000000000002</v>
+        <v>-0.0057000000000000002</v>
       </c>
       <c r="C16" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="0">
-        <v>0.52410000000000001</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="E16" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" s="0">
-        <v>0.61219999999999997</v>
+        <v>0.3952</v>
       </c>
       <c r="G16" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0">
-        <v>0.75129999999999997</v>
+        <v>0.71140000000000003</v>
       </c>
       <c r="I16" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J16" s="0">
-        <v>0.78110000000000002</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="K16" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L16" s="0">
-        <v>0.82879999999999998</v>
+        <v>1.0326</v>
       </c>
       <c r="M16" s="0">
         <v>4</v>
       </c>
       <c r="N16" s="0">
-        <v>0.85170000000000001</v>
+        <v>0.83450000000000002</v>
       </c>
       <c r="O16" s="0">
         <v>4</v>
       </c>
       <c r="P16" s="0">
-        <v>0.85909999999999998</v>
+        <v>0.88060000000000005</v>
       </c>
       <c r="Q16" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" s="0">
-        <v>0.85860000000000003</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="S16" s="0">
         <v>4</v>
       </c>
       <c r="T16" s="0">
-        <v>0.85819999999999996</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="U16" s="0">
         <v>4</v>
       </c>
       <c r="V16" s="0">
-        <v>0.85619999999999996</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="W16" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X16" s="0">
-        <v>0.93679999999999997</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="Y16" s="0">
         <v>4</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.84860000000000002</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="AA16" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="0">
-        <v>0.84279999999999999</v>
+        <v>1.1368</v>
       </c>
       <c r="AC16" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.83509999999999995</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="AE16" s="0">
         <v>4</v>
       </c>
       <c r="AF16" s="0">
-        <v>0.82469999999999999</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="AG16" s="0">
         <v>4</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.80969999999999998</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="AI16" s="0">
         <v>4</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0.77610000000000001</v>
+        <v>0.84960000000000002</v>
       </c>
       <c r="AK16" s="0">
         <v>4</v>
       </c>
       <c r="AL16" s="0">
-        <v>0.16789999999999999</v>
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="AM16" s="0">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="0">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="AO16" s="0">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="0">
+        <v>0.2127</v>
       </c>
     </row>
     <row r="17">
@@ -2025,115 +2221,127 @@
         <v>5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.49509999999999999</v>
+        <v>0.052299999999999999</v>
       </c>
       <c r="C17" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="0">
-        <v>0.59899999999999998</v>
+        <v>0.22969999999999999</v>
       </c>
       <c r="E17" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" s="0">
-        <v>0.67849999999999999</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="G17" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H17" s="0">
-        <v>0.8155</v>
+        <v>0.72519999999999996</v>
       </c>
       <c r="I17" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J17" s="0">
-        <v>0.84570000000000001</v>
+        <v>0.81879999999999997</v>
       </c>
       <c r="K17" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L17" s="0">
-        <v>0.8972</v>
+        <v>1.0245</v>
       </c>
       <c r="M17" s="0">
         <v>5</v>
       </c>
       <c r="N17" s="0">
-        <v>0.92090000000000005</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="O17" s="0">
         <v>5</v>
       </c>
       <c r="P17" s="0">
-        <v>0.9325</v>
+        <v>0.95009999999999995</v>
       </c>
       <c r="Q17" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R17" s="0">
-        <v>0.93759999999999999</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="S17" s="0">
         <v>5</v>
       </c>
       <c r="T17" s="0">
-        <v>0.93859999999999999</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="U17" s="0">
         <v>5</v>
       </c>
       <c r="V17" s="0">
-        <v>0.93789999999999996</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="W17" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" s="0">
-        <v>1.0192000000000001</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="Y17" s="0">
         <v>5</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.93400000000000005</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="AA17" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.92989999999999995</v>
+        <v>1.2159</v>
       </c>
       <c r="AC17" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="0">
-        <v>0.92349999999999999</v>
+        <v>1.1357999999999999</v>
       </c>
       <c r="AE17" s="0">
         <v>5</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.91410000000000002</v>
+        <v>0.95720000000000005</v>
       </c>
       <c r="AG17" s="0">
         <v>5</v>
       </c>
       <c r="AH17" s="0">
-        <v>0.9002</v>
+        <v>0.95109999999999995</v>
       </c>
       <c r="AI17" s="0">
         <v>5</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.8669</v>
+        <v>0.94269999999999998</v>
       </c>
       <c r="AK17" s="0">
         <v>5</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.2125</v>
+        <v>0.9315</v>
+      </c>
+      <c r="AM17" s="0">
+        <v>6</v>
+      </c>
+      <c r="AN17" s="0">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="AO17" s="0">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="0">
+        <v>0.26790000000000003</v>
       </c>
     </row>
     <row r="18">
@@ -2141,115 +2349,127 @@
         <v>6</v>
       </c>
       <c r="B18" s="0">
-        <v>0.5544</v>
+        <v>0.083500000000000005</v>
       </c>
       <c r="C18" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0">
-        <v>0.65680000000000005</v>
+        <v>0.2571</v>
       </c>
       <c r="E18" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0">
-        <v>0.74439999999999995</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="G18" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H18" s="0">
-        <v>0.87890000000000001</v>
+        <v>0.75629999999999997</v>
       </c>
       <c r="I18" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J18" s="0">
-        <v>0.91039999999999999</v>
+        <v>0.8306</v>
       </c>
       <c r="K18" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L18" s="0">
-        <v>0.96530000000000005</v>
+        <v>1.1258999999999999</v>
       </c>
       <c r="M18" s="0">
         <v>6</v>
       </c>
       <c r="N18" s="0">
-        <v>0.99250000000000005</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="O18" s="0">
         <v>6</v>
       </c>
       <c r="P18" s="0">
-        <v>1.0062</v>
+        <v>1.0216000000000001</v>
       </c>
       <c r="Q18" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R18" s="0">
-        <v>1.0128999999999999</v>
+        <v>1.1178999999999999</v>
       </c>
       <c r="S18" s="0">
         <v>6</v>
       </c>
       <c r="T18" s="0">
-        <v>1.0164</v>
+        <v>1.0496000000000001</v>
       </c>
       <c r="U18" s="0">
         <v>6</v>
       </c>
       <c r="V18" s="0">
-        <v>1.0182</v>
+        <v>1.0522</v>
       </c>
       <c r="W18" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X18" s="0">
-        <v>1.0983000000000001</v>
+        <v>1.0524</v>
       </c>
       <c r="Y18" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="0">
-        <v>1.099</v>
+        <v>1.052</v>
       </c>
       <c r="AA18" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB18" s="0">
-        <v>1.0157</v>
+        <v>1.2795000000000001</v>
       </c>
       <c r="AC18" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD18" s="0">
-        <v>1.0106</v>
+        <v>1.2132000000000001</v>
       </c>
       <c r="AE18" s="0">
         <v>6</v>
       </c>
       <c r="AF18" s="0">
-        <v>1.0021</v>
+        <v>1.0461</v>
       </c>
       <c r="AG18" s="0">
         <v>6</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.98870000000000002</v>
+        <v>1.0418000000000001</v>
       </c>
       <c r="AI18" s="0">
         <v>6</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.95350000000000001</v>
+        <v>1.0351999999999999</v>
       </c>
       <c r="AK18" s="0">
         <v>6</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.2545</v>
+        <v>1.0262</v>
+      </c>
+      <c r="AM18" s="0">
+        <v>7</v>
+      </c>
+      <c r="AN18" s="0">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="AO18" s="0">
+        <v>6</v>
+      </c>
+      <c r="AP18" s="0">
+        <v>0.32029999999999997</v>
       </c>
     </row>
     <row r="19">
@@ -2257,115 +2477,127 @@
         <v>7</v>
       </c>
       <c r="B19" s="0">
-        <v>0.60499999999999998</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="0">
-        <v>0.71730000000000005</v>
+        <v>0.30990000000000001</v>
       </c>
       <c r="E19" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0">
-        <v>0.80630000000000002</v>
+        <v>0.43049999999999999</v>
       </c>
       <c r="G19" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H19" s="0">
-        <v>0.94169999999999998</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="I19" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J19" s="0">
-        <v>0.97750000000000004</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="K19" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L19" s="0">
-        <v>1.0358000000000001</v>
+        <v>0.86319999999999997</v>
       </c>
       <c r="M19" s="0">
         <v>7</v>
       </c>
       <c r="N19" s="0">
-        <v>1.0669</v>
+        <v>1.0476000000000001</v>
       </c>
       <c r="O19" s="0">
         <v>7</v>
       </c>
       <c r="P19" s="0">
-        <v>1.0823</v>
+        <v>1.0956999999999999</v>
       </c>
       <c r="Q19" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R19" s="0">
-        <v>1.0906</v>
+        <v>1.2001999999999999</v>
       </c>
       <c r="S19" s="0">
         <v>7</v>
       </c>
       <c r="T19" s="0">
-        <v>1.0954999999999999</v>
+        <v>1.1281000000000001</v>
       </c>
       <c r="U19" s="0">
         <v>7</v>
       </c>
       <c r="V19" s="0">
-        <v>1.0975999999999999</v>
+        <v>1.1326000000000001</v>
       </c>
       <c r="W19" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19" s="0">
-        <v>1.1755</v>
+        <v>1.1345000000000001</v>
       </c>
       <c r="Y19" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z19" s="0">
-        <v>1.1738</v>
+        <v>1.1361000000000001</v>
       </c>
       <c r="AA19" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="0">
-        <v>1.097</v>
+        <v>1.3404</v>
       </c>
       <c r="AC19" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD19" s="0">
-        <v>1.0925</v>
+        <v>1.278</v>
       </c>
       <c r="AE19" s="0">
         <v>7</v>
       </c>
       <c r="AF19" s="0">
-        <v>1.085</v>
+        <v>1.1338999999999999</v>
       </c>
       <c r="AG19" s="0">
         <v>7</v>
       </c>
       <c r="AH19" s="0">
-        <v>1.0718000000000001</v>
+        <v>1.1312</v>
       </c>
       <c r="AI19" s="0">
         <v>7</v>
       </c>
       <c r="AJ19" s="0">
-        <v>1.0336000000000001</v>
+        <v>1.1258999999999999</v>
       </c>
       <c r="AK19" s="0">
         <v>7</v>
       </c>
       <c r="AL19" s="0">
-        <v>0.29370000000000002</v>
+        <v>1.1153</v>
+      </c>
+      <c r="AM19" s="0">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="0">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="AO19" s="0">
+        <v>7</v>
+      </c>
+      <c r="AP19" s="0">
+        <v>0.37019999999999997</v>
       </c>
     </row>
     <row r="20">
@@ -2373,115 +2605,109 @@
         <v>8</v>
       </c>
       <c r="B20" s="0">
-        <v>0.63919999999999999</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0">
-        <v>0.78249999999999997</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" s="0">
-        <v>0.87229999999999997</v>
-      </c>
-      <c r="G20" s="0">
-        <v>9</v>
-      </c>
-      <c r="H20" s="0">
-        <v>1.0074000000000001</v>
-      </c>
-      <c r="I20" s="0">
-        <v>8</v>
-      </c>
-      <c r="J20" s="0">
-        <v>1.0439000000000001</v>
-      </c>
-      <c r="K20" s="0">
-        <v>8</v>
-      </c>
-      <c r="L20" s="0">
-        <v>1.107</v>
+        <v>0.45679999999999998</v>
       </c>
       <c r="M20" s="0">
         <v>8</v>
       </c>
       <c r="N20" s="0">
-        <v>1.1411</v>
+        <v>1.1281000000000001</v>
       </c>
       <c r="O20" s="0">
         <v>8</v>
       </c>
       <c r="P20" s="0">
-        <v>1.1589</v>
+        <v>1.173</v>
       </c>
       <c r="Q20" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R20" s="0">
-        <v>1.1677</v>
+        <v>1.2797000000000001</v>
       </c>
       <c r="S20" s="0">
         <v>8</v>
       </c>
       <c r="T20" s="0">
-        <v>1.1726000000000001</v>
+        <v>1.2082999999999999</v>
       </c>
       <c r="U20" s="0">
         <v>8</v>
       </c>
       <c r="V20" s="0">
-        <v>1.1741999999999999</v>
+        <v>1.2124999999999999</v>
       </c>
       <c r="W20" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X20" s="0">
-        <v>1.2382</v>
+        <v>1.2161</v>
       </c>
       <c r="Y20" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z20" s="0">
-        <v>1.2359</v>
+        <v>1.2155</v>
       </c>
       <c r="AA20" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB20" s="0">
-        <v>1.1701999999999999</v>
+        <v>1.3857999999999999</v>
       </c>
       <c r="AC20" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD20" s="0">
-        <v>1.1632</v>
+        <v>1.3367</v>
       </c>
       <c r="AE20" s="0">
         <v>8</v>
       </c>
       <c r="AF20" s="0">
-        <v>1.1537999999999999</v>
+        <v>1.2103999999999999</v>
       </c>
       <c r="AG20" s="0">
         <v>8</v>
       </c>
       <c r="AH20" s="0">
-        <v>1.1386000000000001</v>
+        <v>1.2059</v>
       </c>
       <c r="AI20" s="0">
         <v>8</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1.1027</v>
+        <v>1.1994</v>
       </c>
       <c r="AK20" s="0">
         <v>8</v>
       </c>
       <c r="AL20" s="0">
-        <v>0.3301</v>
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="AM20" s="0">
+        <v>9</v>
+      </c>
+      <c r="AN20" s="0">
+        <v>1.2129000000000001</v>
+      </c>
+      <c r="AO20" s="0">
+        <v>8</v>
+      </c>
+      <c r="AP20" s="0">
+        <v>0.41810000000000003</v>
       </c>
     </row>
     <row r="21">
@@ -2489,739 +2715,697 @@
         <v>9</v>
       </c>
       <c r="B21" s="0">
-        <v>0.70299999999999996</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="C21" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0">
-        <v>0.81289999999999996</v>
+        <v>0.37140000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="G21" s="0">
-        <v>10</v>
-      </c>
-      <c r="H21" s="0">
-        <v>1.0486</v>
-      </c>
-      <c r="I21" s="0">
-        <v>9</v>
-      </c>
-      <c r="J21" s="0">
-        <v>1.1102000000000001</v>
-      </c>
-      <c r="K21" s="0">
-        <v>9</v>
-      </c>
-      <c r="L21" s="0">
-        <v>1.1785000000000001</v>
+        <v>0.4945</v>
       </c>
       <c r="M21" s="0">
         <v>9</v>
       </c>
       <c r="N21" s="0">
-        <v>1.2135</v>
+        <v>1.1999</v>
       </c>
       <c r="O21" s="0">
         <v>9</v>
       </c>
       <c r="P21" s="0">
-        <v>1.2312000000000001</v>
+        <v>1.2505</v>
       </c>
       <c r="Q21" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R21" s="0">
-        <v>1.2386999999999999</v>
+        <v>1.3533</v>
       </c>
       <c r="S21" s="0">
         <v>9</v>
       </c>
       <c r="T21" s="0">
-        <v>1.2407999999999999</v>
+        <v>1.286</v>
       </c>
       <c r="U21" s="0">
         <v>9</v>
       </c>
       <c r="V21" s="0">
-        <v>1.24</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="W21" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X21" s="0">
-        <v>1.2971999999999999</v>
+        <v>1.2838000000000001</v>
       </c>
       <c r="Y21" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z21" s="0">
-        <v>1.2948999999999999</v>
+        <v>1.2813000000000001</v>
       </c>
       <c r="AA21" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB21" s="0">
-        <v>1.2323999999999999</v>
+        <v>1.4147000000000001</v>
       </c>
       <c r="AC21" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="0">
-        <v>1.2244999999999999</v>
+        <v>1.3775999999999999</v>
       </c>
       <c r="AE21" s="0">
         <v>9</v>
       </c>
       <c r="AF21" s="0">
-        <v>1.2121</v>
+        <v>1.2748999999999999</v>
       </c>
       <c r="AG21" s="0">
         <v>9</v>
       </c>
       <c r="AH21" s="0">
-        <v>1.192</v>
+        <v>1.2694000000000001</v>
       </c>
       <c r="AI21" s="0">
         <v>9</v>
       </c>
       <c r="AJ21" s="0">
-        <v>1.1468</v>
+        <v>1.2611000000000001</v>
       </c>
       <c r="AK21" s="0">
         <v>9</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.36409999999999998</v>
+        <v>1.2485</v>
+      </c>
+      <c r="AM21" s="0">
+        <v>10</v>
+      </c>
+      <c r="AN21" s="0">
+        <v>1.2412000000000001</v>
+      </c>
+      <c r="AO21" s="0">
+        <v>9</v>
+      </c>
+      <c r="AP21" s="0">
+        <v>0.46429999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="C22" s="0">
         <v>11</v>
       </c>
-      <c r="B22" s="0">
-        <v>0.7046</v>
-      </c>
-      <c r="C22" s="0">
-        <v>10</v>
-      </c>
       <c r="D22" s="0">
-        <v>0.81310000000000004</v>
+        <v>0.3957</v>
       </c>
       <c r="E22" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0">
-        <v>0.94630000000000003</v>
-      </c>
-      <c r="G22" s="0">
-        <v>11</v>
-      </c>
-      <c r="H22" s="0">
-        <v>1.0926</v>
-      </c>
-      <c r="I22" s="0">
-        <v>10</v>
-      </c>
-      <c r="J22" s="0">
-        <v>1.1778</v>
-      </c>
-      <c r="K22" s="0">
-        <v>10</v>
-      </c>
-      <c r="L22" s="0">
-        <v>1.2433000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="M22" s="0">
         <v>10</v>
       </c>
       <c r="N22" s="0">
-        <v>1.2799</v>
+        <v>1.2579</v>
       </c>
       <c r="O22" s="0">
         <v>10</v>
       </c>
       <c r="P22" s="0">
-        <v>1.2937000000000001</v>
+        <v>1.3223</v>
       </c>
       <c r="Q22" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R22" s="0">
-        <v>1.2945</v>
+        <v>1.4076</v>
       </c>
       <c r="S22" s="0">
         <v>10</v>
       </c>
       <c r="T22" s="0">
-        <v>1.2978000000000001</v>
+        <v>1.3537999999999999</v>
       </c>
       <c r="U22" s="0">
         <v>10</v>
       </c>
       <c r="V22" s="0">
-        <v>1.2983</v>
+        <v>1.3443000000000001</v>
       </c>
       <c r="W22" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X22" s="0">
-        <v>1.3448</v>
+        <v>1.3453999999999999</v>
       </c>
       <c r="Y22" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="0">
-        <v>1.3376999999999999</v>
+        <v>1.3425</v>
       </c>
       <c r="AA22" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="0">
-        <v>1.2881</v>
+        <v>1.4199999999999999</v>
       </c>
       <c r="AC22" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD22" s="0">
-        <v>1.2774000000000001</v>
+        <v>1.4012</v>
       </c>
       <c r="AE22" s="0">
         <v>10</v>
       </c>
       <c r="AF22" s="0">
-        <v>1.2601</v>
+        <v>1.329</v>
       </c>
       <c r="AG22" s="0">
         <v>10</v>
       </c>
       <c r="AH22" s="0">
-        <v>1.2336</v>
+        <v>1.3194999999999999</v>
       </c>
       <c r="AI22" s="0">
         <v>10</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1.1772</v>
+        <v>1.3046</v>
       </c>
       <c r="AK22" s="0">
         <v>10</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.39560000000000001</v>
+        <v>1.2827</v>
+      </c>
+      <c r="AM22" s="0">
+        <v>11</v>
+      </c>
+      <c r="AN22" s="0">
+        <v>1.2456</v>
+      </c>
+      <c r="AO22" s="0">
+        <v>10</v>
+      </c>
+      <c r="AP22" s="0">
+        <v>0.5091</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
+        <v>11</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.2863</v>
+      </c>
+      <c r="C23" s="0">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.44529999999999997</v>
+      </c>
+      <c r="E23" s="0">
         <v>13</v>
       </c>
-      <c r="B23" s="0">
-        <v>0.73450000000000004</v>
-      </c>
-      <c r="C23" s="0">
-        <v>14</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0.82030000000000003</v>
-      </c>
-      <c r="E23" s="0">
-        <v>11</v>
-      </c>
       <c r="F23" s="0">
-        <v>0.94720000000000004</v>
-      </c>
-      <c r="G23" s="0">
-        <v>12</v>
-      </c>
-      <c r="H23" s="0">
-        <v>1.1129</v>
-      </c>
-      <c r="I23" s="0">
-        <v>11</v>
-      </c>
-      <c r="J23" s="0">
-        <v>1.2263999999999999</v>
-      </c>
-      <c r="K23" s="0">
-        <v>11</v>
-      </c>
-      <c r="L23" s="0">
-        <v>1.3007</v>
+        <v>0.56740000000000002</v>
       </c>
       <c r="M23" s="0">
         <v>11</v>
       </c>
       <c r="N23" s="0">
-        <v>1.3359000000000001</v>
+        <v>1.3031999999999999</v>
       </c>
       <c r="O23" s="0">
         <v>11</v>
       </c>
       <c r="P23" s="0">
-        <v>1.3392999999999999</v>
+        <v>1.3843000000000001</v>
       </c>
       <c r="Q23" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R23" s="0">
-        <v>1.3455999999999999</v>
+        <v>1.4406000000000001</v>
       </c>
       <c r="S23" s="0">
         <v>11</v>
       </c>
       <c r="T23" s="0">
-        <v>1.3482000000000001</v>
+        <v>1.3995</v>
       </c>
       <c r="U23" s="0">
         <v>11</v>
       </c>
       <c r="V23" s="0">
-        <v>1.3478000000000001</v>
+        <v>1.3974</v>
       </c>
       <c r="W23" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X23" s="0">
-        <v>1.3694999999999999</v>
+        <v>1.3949</v>
       </c>
       <c r="Y23" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z23" s="0">
-        <v>1.3566</v>
+        <v>1.3916</v>
       </c>
       <c r="AA23" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB23" s="0">
-        <v>1.3262</v>
+        <v>1.4046000000000001</v>
       </c>
       <c r="AC23" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD23" s="0">
-        <v>1.3089</v>
+        <v>1.401</v>
       </c>
       <c r="AE23" s="0">
         <v>11</v>
       </c>
       <c r="AF23" s="0">
-        <v>1.2856000000000001</v>
+        <v>1.3662000000000001</v>
       </c>
       <c r="AG23" s="0">
         <v>11</v>
       </c>
       <c r="AH23" s="0">
-        <v>1.2529999999999999</v>
+        <v>1.3502000000000001</v>
       </c>
       <c r="AI23" s="0">
         <v>11</v>
       </c>
       <c r="AJ23" s="0">
-        <v>1.1900999999999999</v>
+        <v>1.3288</v>
       </c>
       <c r="AK23" s="0">
         <v>11</v>
       </c>
       <c r="AL23" s="0">
-        <v>0.4249</v>
+        <v>1.2994000000000001</v>
+      </c>
+      <c r="AM23" s="0">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="0">
+        <v>1.2367999999999999</v>
+      </c>
+      <c r="AO23" s="0">
+        <v>11</v>
+      </c>
+      <c r="AP23" s="0">
+        <v>0.55259999999999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="C24" s="0">
+        <v>13</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="E24" s="0">
         <v>14</v>
       </c>
-      <c r="B24" s="0">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="C24" s="0">
-        <v>15</v>
-      </c>
-      <c r="D24" s="0">
-        <v>0.87209999999999999</v>
-      </c>
-      <c r="E24" s="0">
-        <v>12</v>
-      </c>
       <c r="F24" s="0">
-        <v>0.9647</v>
-      </c>
-      <c r="G24" s="0">
-        <v>13</v>
-      </c>
-      <c r="H24" s="0">
-        <v>1.0576000000000001</v>
-      </c>
-      <c r="I24" s="0">
-        <v>12</v>
-      </c>
-      <c r="J24" s="0">
-        <v>1.2742</v>
-      </c>
-      <c r="K24" s="0">
-        <v>12</v>
-      </c>
-      <c r="L24" s="0">
-        <v>1.3487</v>
+        <v>0.57730000000000004</v>
       </c>
       <c r="M24" s="0">
         <v>12</v>
       </c>
       <c r="N24" s="0">
-        <v>1.3672</v>
+        <v>1.3605</v>
       </c>
       <c r="O24" s="0">
         <v>12</v>
       </c>
       <c r="P24" s="0">
-        <v>1.3788</v>
+        <v>1.4369000000000001</v>
       </c>
       <c r="Q24" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R24" s="0">
-        <v>1.3836999999999999</v>
+        <v>1.4669000000000001</v>
       </c>
       <c r="S24" s="0">
         <v>12</v>
       </c>
       <c r="T24" s="0">
-        <v>1.3849</v>
+        <v>1.4397</v>
       </c>
       <c r="U24" s="0">
         <v>12</v>
       </c>
       <c r="V24" s="0">
-        <v>1.3791</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="W24" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X24" s="0">
-        <v>1.3735</v>
+        <v>1.4303999999999999</v>
       </c>
       <c r="Y24" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z24" s="0">
-        <v>1.3568</v>
+        <v>1.4234</v>
       </c>
       <c r="AA24" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB24" s="0">
-        <v>1.3396999999999999</v>
+        <v>1.3797999999999999</v>
       </c>
       <c r="AC24" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD24" s="0">
-        <v>1.3182</v>
+        <v>1.3827</v>
       </c>
       <c r="AE24" s="0">
         <v>12</v>
       </c>
       <c r="AF24" s="0">
-        <v>1.2905</v>
+        <v>1.3833</v>
       </c>
       <c r="AG24" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH24" s="0">
-        <v>1.2515000000000001</v>
+        <v>1.3535999999999999</v>
       </c>
       <c r="AI24" s="0">
         <v>12</v>
       </c>
       <c r="AJ24" s="0">
-        <v>1.186</v>
+        <v>1.3345</v>
       </c>
       <c r="AK24" s="0">
         <v>12</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.45229999999999998</v>
+        <v>1.3016000000000001</v>
+      </c>
+      <c r="AM24" s="0">
+        <v>13</v>
+      </c>
+      <c r="AN24" s="0">
+        <v>1.2063999999999999</v>
+      </c>
+      <c r="AO24" s="0">
+        <v>12</v>
+      </c>
+      <c r="AP24" s="0">
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.371</v>
+      </c>
+      <c r="C25" s="0">
+        <v>14</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="E25" s="0">
         <v>15</v>
       </c>
-      <c r="B25" s="0">
-        <v>0.80759999999999999</v>
-      </c>
-      <c r="E25" s="0">
-        <v>13</v>
-      </c>
       <c r="F25" s="0">
-        <v>0.87519999999999998</v>
-      </c>
-      <c r="I25" s="0">
-        <v>13</v>
-      </c>
-      <c r="J25" s="0">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="K25" s="0">
-        <v>13</v>
-      </c>
-      <c r="L25" s="0">
-        <v>1.3799999999999999</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="M25" s="0">
         <v>13</v>
       </c>
       <c r="N25" s="0">
-        <v>1.3919999999999999</v>
+        <v>1.1833</v>
       </c>
       <c r="O25" s="0">
         <v>13</v>
       </c>
       <c r="P25" s="0">
-        <v>1.4041999999999999</v>
+        <v>1.4581</v>
       </c>
       <c r="Q25" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R25" s="0">
-        <v>1.4033</v>
+        <v>1.4759</v>
       </c>
       <c r="S25" s="0">
         <v>13</v>
       </c>
       <c r="T25" s="0">
-        <v>1.3960999999999999</v>
+        <v>1.4648000000000001</v>
       </c>
       <c r="U25" s="0">
         <v>13</v>
       </c>
       <c r="V25" s="0">
-        <v>1.3859999999999999</v>
+        <v>1.4543999999999999</v>
       </c>
       <c r="W25" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X25" s="0">
-        <v>1.3593</v>
+        <v>1.4473</v>
       </c>
       <c r="Y25" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z25" s="0">
-        <v>1.3405</v>
-      </c>
-      <c r="AA25" s="0">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="0">
-        <v>1.3362000000000001</v>
+        <v>1.4361999999999999</v>
       </c>
       <c r="AC25" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD25" s="0">
-        <v>1.3118000000000001</v>
+        <v>1.3575999999999999</v>
       </c>
       <c r="AE25" s="0">
         <v>13</v>
       </c>
       <c r="AF25" s="0">
-        <v>1.2784</v>
+        <v>1.3789</v>
       </c>
       <c r="AG25" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH25" s="0">
-        <v>1.2391000000000001</v>
+        <v>1.3325</v>
       </c>
       <c r="AI25" s="0">
         <v>13</v>
       </c>
       <c r="AJ25" s="0">
-        <v>1.1697</v>
+        <v>1.3255999999999999</v>
       </c>
       <c r="AK25" s="0">
         <v>13</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.47799999999999998</v>
+        <v>1.2950999999999999</v>
+      </c>
+      <c r="AM25" s="0">
+        <v>14</v>
+      </c>
+      <c r="AN25" s="0">
+        <v>1.1826000000000001</v>
+      </c>
+      <c r="AO25" s="0">
+        <v>13</v>
+      </c>
+      <c r="AP25" s="0">
+        <v>0.63660000000000005</v>
       </c>
     </row>
     <row r="26">
-      <c r="I26" s="0">
+      <c r="A26" s="0">
         <v>14</v>
       </c>
-      <c r="J26" s="0">
-        <v>1.2686999999999999</v>
-      </c>
-      <c r="K26" s="0">
-        <v>14</v>
-      </c>
-      <c r="L26" s="0">
-        <v>1.3681000000000001</v>
+      <c r="B26" s="0">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="C26" s="0">
+        <v>15</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.55010000000000003</v>
       </c>
       <c r="M26" s="0">
         <v>14</v>
       </c>
       <c r="N26" s="0">
-        <v>1.4008</v>
+        <v>1.2517</v>
       </c>
       <c r="O26" s="0">
         <v>14</v>
       </c>
       <c r="P26" s="0">
-        <v>1.4078</v>
+        <v>1.4469000000000001</v>
       </c>
       <c r="Q26" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R26" s="0">
-        <v>1.3988</v>
+        <v>1.4575</v>
       </c>
       <c r="S26" s="0">
         <v>14</v>
       </c>
       <c r="T26" s="0">
-        <v>1.3902000000000001</v>
+        <v>1.4663999999999999</v>
       </c>
       <c r="U26" s="0">
         <v>14</v>
       </c>
       <c r="V26" s="0">
-        <v>1.3755999999999999</v>
+        <v>1.4549000000000001</v>
       </c>
       <c r="W26" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X26" s="0">
-        <v>1.3320000000000001</v>
+        <v>1.4415</v>
       </c>
       <c r="Y26" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z26" s="0">
-        <v>1.3079000000000001</v>
-      </c>
-      <c r="AA26" s="0">
-        <v>14</v>
-      </c>
-      <c r="AB26" s="0">
-        <v>1.3161</v>
-      </c>
-      <c r="AC26" s="0">
-        <v>14</v>
-      </c>
-      <c r="AD26" s="0">
-        <v>1.2849999999999999</v>
+        <v>1.4239</v>
       </c>
       <c r="AE26" s="0">
         <v>14</v>
       </c>
       <c r="AF26" s="0">
-        <v>1.2525999999999999</v>
+        <v>1.3586</v>
       </c>
       <c r="AG26" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH26" s="0">
-        <v>1.2152000000000001</v>
+        <v>1.3070999999999999</v>
       </c>
       <c r="AI26" s="0">
         <v>14</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1.1447000000000001</v>
+        <v>1.3015000000000001</v>
       </c>
       <c r="AK26" s="0">
         <v>14</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.50229999999999997</v>
+        <v>1.2638</v>
+      </c>
+      <c r="AM26" s="0">
+        <v>15</v>
+      </c>
+      <c r="AN26" s="0">
+        <v>1.0283</v>
+      </c>
+      <c r="AO26" s="0">
+        <v>14</v>
+      </c>
+      <c r="AP26" s="0">
+        <v>0.6774</v>
       </c>
     </row>
     <row r="27">
-      <c r="I27" s="0">
+      <c r="A27" s="0">
         <v>15</v>
       </c>
-      <c r="J27" s="0">
-        <v>1.1071</v>
-      </c>
-      <c r="K27" s="0">
-        <v>15</v>
-      </c>
-      <c r="L27" s="0">
-        <v>1.3294999999999999</v>
-      </c>
-      <c r="M27" s="0">
-        <v>15</v>
-      </c>
-      <c r="N27" s="0">
-        <v>1.3846000000000001</v>
+      <c r="B27" s="0">
+        <v>0.4708</v>
       </c>
       <c r="O27" s="0">
         <v>15</v>
       </c>
       <c r="P27" s="0">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="Q27" s="0">
-        <v>15</v>
-      </c>
-      <c r="R27" s="0">
-        <v>1.3762000000000001</v>
+        <v>1.3936999999999999</v>
       </c>
       <c r="S27" s="0">
         <v>15</v>
       </c>
       <c r="T27" s="0">
-        <v>1.3653</v>
+        <v>1.4512</v>
       </c>
       <c r="U27" s="0">
         <v>15</v>
       </c>
       <c r="V27" s="0">
-        <v>1.3500000000000001</v>
-      </c>
-      <c r="AA27" s="0">
+        <v>1.4337</v>
+      </c>
+      <c r="W27" s="0">
         <v>15</v>
       </c>
-      <c r="AB27" s="0">
-        <v>1.2830999999999999</v>
-      </c>
-      <c r="AC27" s="0">
+      <c r="X27" s="0">
+        <v>1.4152</v>
+      </c>
+      <c r="Y27" s="0">
         <v>15</v>
       </c>
-      <c r="AD27" s="0">
-        <v>1.2543</v>
+      <c r="Z27" s="0">
+        <v>1.3983000000000001</v>
       </c>
       <c r="AE27" s="0">
         <v>15</v>
       </c>
       <c r="AF27" s="0">
-        <v>1.2204999999999999</v>
-      </c>
-      <c r="AG27" s="0">
-        <v>15</v>
-      </c>
-      <c r="AH27" s="0">
-        <v>1.1842999999999999</v>
+        <v>1.3352999999999999</v>
       </c>
       <c r="AI27" s="0">
         <v>15</v>
       </c>
       <c r="AJ27" s="0">
-        <v>1.1073</v>
+        <v>1.2747999999999999</v>
       </c>
       <c r="AK27" s="0">
         <v>15</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.52529999999999999</v>
+        <v>1.2299</v>
+      </c>
+      <c r="AO27" s="0">
+        <v>15</v>
+      </c>
+      <c r="AP27" s="0">
+        <v>0.7177</v>
       </c>
     </row>
   </sheetData>
